--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Desktop\Analytics\R\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA7BAD6-81B4-4062-80B6-7B9D678BDF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A403388-5E34-4BFD-B5D9-3C8D5C3439F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="1004">
   <si>
     <t xml:space="preserve">Have you volunteered with Crowddoing? </t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Are you comfortable responding to emails within two (2) calendar days</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
   <si>
     <t/>
@@ -201,9 +198,6 @@
     <t xml:space="preserve">I would like to help my colleagues in areas like Team Building, Problem Solving, Training &amp; development. </t>
   </si>
   <si>
-    <t>2113 Buckthorn Dr. Columbus,IN</t>
-  </si>
-  <si>
     <t>I’m a good designer too and I have been coding for a year now . I was a leader in high school</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t xml:space="preserve">Group works </t>
   </si>
   <si>
-    <t>Accra, fise Roka international school</t>
-  </si>
-  <si>
     <t>Because it is providing me an opportunity to apply my knowledge and improve my skills.</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>Friday-7.30pm, Friday-8pm,Saturday-7.30pm,Saturday-8pm</t>
   </si>
   <si>
-    <t>M-61 Soni Pg Girls Hostel Bhopal Madhya Pradesh-462016</t>
-  </si>
-  <si>
     <t>Love to give back to an innovative organization</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
   </si>
   <si>
     <t>Human resources and leadership</t>
-  </si>
-  <si>
-    <t>Troy, NY</t>
   </si>
   <si>
     <t>Want to volunteer, need to refresh technical skills, strong interest in medicinal food topic</t>
@@ -314,9 +299,6 @@
   </si>
   <si>
     <t xml:space="preserve">I am good at helping others find solutions or resolve technical issues by being "second set of eyes", providing another perspective, and old-fashioned research. </t>
-  </si>
-  <si>
-    <t>Po Box 93603</t>
   </si>
   <si>
     <t>I am interested in Citizen Science projects</t>
@@ -351,9 +333,6 @@
  </t>
   </si>
   <si>
-    <t>5438 S. Hyde Park Blvd.</t>
-  </si>
-  <si>
     <t>Digital Marketing, Project Management, Writing and Presentation</t>
   </si>
   <si>
@@ -375,9 +354,6 @@
     <t>Monday to Tuesday</t>
   </si>
   <si>
-    <t>43 empire road springs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Volunteering can be a great way to get some experience, build your resume, and create connections in the crypto world. I volunteer with Messari by writing cryptoasset profiles. Ryan Selkis’ initial call for analysts was exactly what I was looking for, a place to get started, to jump in and learn as much as possible. I learned directly good knowledge about backend SQL and Oracle. Also I have 9 Yrs IT experince as Developer to  Project Managment and more by writing cryptoasset profiles, as well as indirectly through osmosis. When you’re around exceptional people, their knowledge and experience flows from them to everyone else. The closer you are to those people, the more you learn. Period. </t>
   </si>
   <si>
@@ -408,9 +384,6 @@
     <t>adaptive new technology and challenges</t>
   </si>
   <si>
-    <t>05 Sandalwood Soc,  India</t>
-  </si>
-  <si>
     <t xml:space="preserve">I'm interested because i want to acquire HR skills and experience and have the ability to volunteer for a respected and recognized organization </t>
   </si>
   <si>
@@ -444,9 +417,6 @@
     <t>Listen effectively, Learn to give and take feedback,  Develop your communication skills, Accept and celebrate differences</t>
   </si>
   <si>
-    <t>237 Main Park Ln</t>
-  </si>
-  <si>
     <t>I am interested in the mission of the company and the HR opportunity it offers. I would be honored to contribute to the goals of the company and practice my HR skills at CrowdDoing.</t>
   </si>
   <si>
@@ -477,9 +447,6 @@
     <t>Mentoring and constructive criticism.</t>
   </si>
   <si>
-    <t>B p 718 Cidex, Abidjan 03, Ivory Coast</t>
-  </si>
-  <si>
     <t>Enhance my career and build my experience. Above all I am very passionate to give a hand to one in need.</t>
   </si>
   <si>
@@ -510,9 +477,6 @@
     <t>Creative and Design thinking</t>
   </si>
   <si>
-    <t>11815 - 00100</t>
-  </si>
-  <si>
     <t>It is a great opportunity to hone my skills and help my community</t>
   </si>
   <si>
@@ -531,9 +495,6 @@
     <t>All days</t>
   </si>
   <si>
-    <t>148 Nautical Cove</t>
-  </si>
-  <si>
     <t xml:space="preserve">I’m interested in helping my community reach their healthiest potential. </t>
   </si>
   <si>
@@ -552,9 +513,6 @@
     <t>M-F between 3-4pm PST</t>
   </si>
   <si>
-    <t>1935 SE 22 Drive</t>
-  </si>
-  <si>
     <t>Project Manager, Data Scientist, Public Health Expert</t>
   </si>
   <si>
@@ -585,9 +543,6 @@
     <t>Collaboration, Leadership</t>
   </si>
   <si>
-    <t>Shriram Spandana, Challaghatta, Bangalore, India</t>
-  </si>
-  <si>
     <t>Marketing, Wordpress Developer, Business Analyst</t>
   </si>
   <si>
@@ -621,9 +576,6 @@
     <t>Customer service, data management, Recruitment (Screening/interviewing), and Training</t>
   </si>
   <si>
-    <t>35904 Woodridge Cir, Apt 206, Farmington Hills, 48335</t>
-  </si>
-  <si>
     <t>Human Resources</t>
   </si>
   <si>
@@ -648,9 +600,6 @@
     <t>Monday, Feb 10th to Friday, Feb 14th, 9AM to 3PM PST</t>
   </si>
   <si>
-    <t>15565 SE 160th PL, Renton, WA</t>
-  </si>
-  <si>
     <t>Web Developer</t>
   </si>
   <si>
@@ -684,9 +633,6 @@
     <t>Depending on the mission, it could be soft skills (e.g. project methodology PMI / Prince 2, written communication, time management, empowerment) or hard skills (e.g. a software used at CrowDoing).</t>
   </si>
   <si>
-    <t>Hellestraat 18 9800 Astene, Belgium</t>
-  </si>
-  <si>
     <t>Project Manager, program manager</t>
   </si>
   <si>
@@ -709,9 +655,6 @@
   </si>
   <si>
     <t>Any 2nd , 4th Saturdays and all sundays of month between 11am to 4pm</t>
-  </si>
-  <si>
-    <t>FLAT NO.  E902, MAYFLOWER GRANDE,  OPPOSITE TO NOMA TALKIES, MALLAPUR, HYDERABAD 500076</t>
   </si>
   <si>
     <t xml:space="preserve">Project Manager, Procurement,  vendor management </t>
@@ -751,9 +694,6 @@
   </si>
   <si>
     <t>To exchange and training in digitalization, because I have a lot of experience and I think it will be relevant for colleagues, because it will help to attract the attention of more people to the project</t>
-  </si>
-  <si>
-    <t>Ukraine, Kyiv City, Donetska st. 57-A</t>
   </si>
   <si>
     <t>Human Resources, Social Media Manager</t>
@@ -804,9 +744,6 @@
 Ensure that volunteers understand the mission of the organisation and also have the passion to serve. </t>
   </si>
   <si>
-    <t xml:space="preserve">No. 21 Nwachukwu orizu Street, world bank estate,Owerri, imo state. Nigeria. </t>
-  </si>
-  <si>
     <t>Project Manager, Financial Analyst</t>
   </si>
   <si>
@@ -841,9 +778,6 @@
     <t>Building Web Applications, Read Database Diagrams, Make Brainstorming, Using GIT</t>
   </si>
   <si>
-    <t>6535 SE FEDERAL HWY #2-202</t>
-  </si>
-  <si>
     <t>Project Manager, Web Developer, Android Developer, Wordpress Developer, Hosting, Web Servers, Git</t>
   </si>
   <si>
@@ -863,9 +797,6 @@
   </si>
   <si>
     <t>Tuesday Wednesday, Thursday and Friday</t>
-  </si>
-  <si>
-    <t>Van Stralenlei, 4</t>
   </si>
   <si>
     <t>Instructional Designer Volunteer</t>
@@ -905,9 +836,6 @@
     <t>Regardless of skills and experiences, for a Machine Learning Professional, there will always be unfamiliar data structures, problem natures and many new puzzles. Learning from experiences, from challenges, from chances, from peers and colleagues- which is how I improve my professional career. And, nothing can replace the benefit of being able to successfully solve another new problem.</t>
   </si>
   <si>
-    <t>P.O. Box 560, South Pasadena, CA 91031</t>
-  </si>
-  <si>
     <t>Project Manager, Data Scientist, Machine Learning Engineer, Deep Learning Engineer</t>
   </si>
   <si>
@@ -947,9 +875,6 @@
     <t>data analysis, research analysis</t>
   </si>
   <si>
-    <t>2122 W 11th St, Brooklyn, NY, 11223</t>
-  </si>
-  <si>
     <t>Project Manager, Human Resources, Marketing, Social Media Manager, Financial Analyst, Data Scientist, data analyst, research analyst</t>
   </si>
   <si>
@@ -983,9 +908,6 @@
     <t>Not sure on what this question is asking. I love being a mentor to junior PMs. It gives me great satisfaction and I learn a lot too!</t>
   </si>
   <si>
-    <t>9247 Interlake Ave NE Seattle Wa 98103</t>
-  </si>
-  <si>
     <t>Project Manager, Marketing</t>
   </si>
   <si>
@@ -1011,9 +933,6 @@
   </si>
   <si>
     <t>I am organized and I work well in teams. I get impatient if I have a task to complete</t>
-  </si>
-  <si>
-    <t>102 Fairmont st, clinton, 39056 MS</t>
   </si>
   <si>
     <t>Human Resources, Marketing</t>
@@ -1054,9 +973,6 @@
 I would say that one of my biggest strengths is motivating and building up others.  Knowing how I have been with myself in the past by being self-critical, I know that others are dealing with the same thing.  Sometimes people have other people besides themselves being critical.  I enjoy giving accolades and support to those when I see they are really standing out.  You never know what some kind words, gestures, or even recognition can do for someone else.</t>
   </si>
   <si>
-    <t>9551 Sherwood Place</t>
-  </si>
-  <si>
     <t xml:space="preserve">I want to improve my english. And I need some experiments for international projects / teams. </t>
   </si>
   <si>
@@ -1070,9 +986,6 @@
   </si>
   <si>
     <t>Weekdays 11.00 AM PST</t>
-  </si>
-  <si>
-    <t>Istanbul / Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">I am interested in volunteer position </t>
@@ -1093,9 +1006,6 @@
 3/3/2020  1pm Tuesday (PST)</t>
   </si>
   <si>
-    <t>2921 S MICHIGAN AVE APT 413</t>
-  </si>
-  <si>
     <t>To contribute my skills and experience in novel projects helping humanity as the ones being undertaken by CrowdDoing</t>
   </si>
   <si>
@@ -1129,9 +1039,6 @@
     <t>Conflict Management; Collaboration; Project management tools and techniques</t>
   </si>
   <si>
-    <t>Erin Ridge Drive</t>
-  </si>
-  <si>
     <t>Project Manager, Marketing, Business Analyst, Process Improvement Analyst</t>
   </si>
   <si>
@@ -1189,9 +1096,6 @@
     <t>Listening and analyzing the problem and come up with creative solution</t>
   </si>
   <si>
-    <t>2910 22nd St SE</t>
-  </si>
-  <si>
     <t>Financial Analyst, Data Scientist</t>
   </si>
   <si>
@@ -1213,9 +1117,6 @@
     <t>friday 6th march any time between 10 to 5, friday 20th any time between 10 to 5</t>
   </si>
   <si>
-    <t>7902 tysosn one plave</t>
-  </si>
-  <si>
     <t xml:space="preserve">Python Developer, Data Scientist, ETL , AWS </t>
   </si>
   <si>
@@ -1244,9 +1145,6 @@
   </si>
   <si>
     <t>I am always a faster leaner and willing to learn. I love trying new things such as photography, leadership, programming code and so on. I would encourage others to explore new area and try any new and innovative technologies. As world develops faster, we all need to keep pace with the times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1501 maple ave. </t>
   </si>
   <si>
     <t>Project Manager, Python Developer, Financial Analyst, Data Scientist, others</t>
@@ -1278,9 +1176,6 @@
   </si>
   <si>
     <t>March 10th -13th 4:00 pm</t>
-  </si>
-  <si>
-    <t>1600 S Eads St</t>
   </si>
   <si>
     <t>I want to help the community because I know I am privileged, but not everyone else is. People in need don't always have accessible resources and I want to work toward a cause that will benefit communities.</t>
@@ -1316,9 +1211,6 @@
     <t>I have experience establishing efficient sets of tasks to get projects done with a quicker turnaround time</t>
   </si>
   <si>
-    <t>303 Tenth Avenue #11E</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
@@ -1358,9 +1250,6 @@
     <t>Some areas I would be willing to capacity build my colleagues in are organization, planning, and effective communication. I think these are my greatest skills and I enjoy helping develop my coworkers in those areas.</t>
   </si>
   <si>
-    <t>89 Caitlin Ct., Franklin Park, NJ 08823</t>
-  </si>
-  <si>
     <t>During high school and college, I volunteered often I would like to get back to those roots, and be of service. Additionally, the HR Sourcing Specialist role would provide additional experience helpful to my career.</t>
   </si>
   <si>
@@ -1376,9 +1265,6 @@
     <t xml:space="preserve">March 13, 11:00 am - 1:00 pm PST, March 16, 11:00 am - 1:00 pm PST, March 17, 11:00 am - 1:00 pm PST, March 18, 11:00 am - 1:00 pm PST, </t>
   </si>
   <si>
-    <t>Augusta, GA</t>
-  </si>
-  <si>
     <t>Practice digital marketing analyst skills and bring positive impact to the world</t>
   </si>
   <si>
@@ -1400,9 +1286,6 @@
     <t>03/11: 9am-5pm,03/12: 9am-5pm,03/13: 9am-5pm,03/14: 9am-5pm,03/15: 9am-5pm</t>
   </si>
   <si>
-    <t>1447 Broderick San Francisco CA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marketing, Social Media Manager, Digital Marketing Analyst </t>
   </si>
   <si>
@@ -1431,9 +1314,6 @@
   </si>
   <si>
     <t>being a detail oriented person, it is easy for me to stop at nothing but to pursue perfection, while perfection is desirable to achieve, I need to work on excessive time and resources consumption, which should not be used to achieve marginal improvement</t>
-  </si>
-  <si>
-    <t>936 S Olive St, Apt #657</t>
   </si>
   <si>
     <t>Data Scientist, Business Analyst or Operations Research Analyst</t>
@@ -1468,9 +1348,6 @@
     <t xml:space="preserve">I am adaptable and hardworking. I will rise to any challenge. My weakness would be that want the end result to be perfect. I will continue to work on a project or task until I deem it perfect, but there are deadlines and I may need to turn it in. </t>
   </si>
   <si>
-    <t>310 Saw Mill Lane apt.10J, Apt 10J</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -1495,9 +1372,6 @@
     <t>Coming Weekdays, 9am - Noon (PST)</t>
   </si>
   <si>
-    <t>126 Mercer st, Jersey CIty, NJ</t>
-  </si>
-  <si>
     <t>Financial Analyst, Data Analyst</t>
   </si>
   <si>
@@ -1531,9 +1405,6 @@
     <t>Project deadlines, teamwork, data research support</t>
   </si>
   <si>
-    <t>3270 N Lake Shore Dr #3F Chicago/IL 60657</t>
-  </si>
-  <si>
     <t>Project Manager, Marketing, Social Media Manager</t>
   </si>
   <si>
@@ -1556,9 +1427,6 @@
   </si>
   <si>
     <t xml:space="preserve">monday - 12 pm - pm, Tuesday - 12 pm - 4 pm, wednesday/ thursday - 12pm - 2 pm, Friday - 12 pm - 5 pm. </t>
-  </si>
-  <si>
-    <t>651 Hendrix St,Philadelphia,PA,19116</t>
   </si>
   <si>
     <t>Web Developer, Android Developer, Marketing, Social Media Manager, Wordpress Developer, ux designer/researcher</t>
@@ -1585,9 +1453,6 @@
     <t>03/19,03/21</t>
   </si>
   <si>
-    <t>330 Sussex Street, Harrison, NJ</t>
-  </si>
-  <si>
     <t>Marketing, Data Scientist</t>
   </si>
   <si>
@@ -1626,9 +1491,6 @@
     <t>I would like to strengthen my skills in statistical analysis and interpretation. I would also like to learn more about creating and managing program budgeting reports. I would happy to receive training, receive constructive feedback, and collaborate with colleagues on these topics.</t>
   </si>
   <si>
-    <t>2640 Ahekolo St. Honolulu Hawaii</t>
-  </si>
-  <si>
     <t>I want to polish up my skills in CS while doing something productive to the community.</t>
   </si>
   <si>
@@ -1653,9 +1515,6 @@
     <t>Any time within the next 2 weeks works for me.</t>
   </si>
   <si>
-    <t>19 Woodlawn Avenue, Bridgewater NJ 08807</t>
-  </si>
-  <si>
     <t>Web Developer, Python Developer, Android Developer, Data Scientist</t>
   </si>
   <si>
@@ -1689,9 +1548,6 @@
     <t>I am not sure I understand the question but my greatest strength is that I am process driven. I naturally seek out patterns (think step-by-step) to find repeatable, transparent, measurable, and efficient ways of getting things done. Once SOPs are established, anyone with minimal training can step in and take over.</t>
   </si>
   <si>
-    <t>9309 Valencia Canyon Drive, Las Vegas, NV 89117</t>
-  </si>
-  <si>
     <t>others, CrowdDoing Operations Virtual Admin Assistant Volunteer</t>
   </si>
   <si>
@@ -1725,9 +1581,6 @@
     <t>general management, financial management</t>
   </si>
   <si>
-    <t>3211 QUANDT RD</t>
-  </si>
-  <si>
     <t>Project Manager, Human Resources, Financial Analyst</t>
   </si>
   <si>
@@ -1759,9 +1612,6 @@
   </si>
   <si>
     <t xml:space="preserve">communication skills </t>
-  </si>
-  <si>
-    <t>5253 15th Ave NE, Seattle, WA</t>
   </si>
   <si>
     <t>Web Developer, Python Developer, Data Scientist</t>
@@ -1786,9 +1636,6 @@
     <t>March- 30th and 31st, April 1st and 2nd: 9am to 12pm</t>
   </si>
   <si>
-    <t>hoangh97@uw.edu</t>
-  </si>
-  <si>
     <t>Project Manager, Web Developer, Android Developer</t>
   </si>
   <si>
@@ -1807,9 +1654,6 @@
     <t>Fridays 1pm-5pm, Mondays 1pm-5pm</t>
   </si>
   <si>
-    <t>Boston, MA</t>
-  </si>
-  <si>
     <t xml:space="preserve">I wanna to help peoples. </t>
   </si>
   <si>
@@ -1828,9 +1672,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>Village semari post derwa kotar Satna</t>
-  </si>
-  <si>
     <t>others</t>
   </si>
   <si>
@@ -1859,9 +1700,6 @@
   </si>
   <si>
     <t>Any weekday from 9am to 4pm.</t>
-  </si>
-  <si>
-    <t>6136 cedar wood dr</t>
   </si>
   <si>
     <t>Data Scientist, others, Operations Research Analyst</t>
@@ -1889,9 +1727,6 @@
     <t>1 pm in March 30, 1 pm in March 31, 1 pm in April 1, 1 pm in April 2.</t>
   </si>
   <si>
-    <t>3270 Walton Riverwood Ln SE, Apt 4001, Atlanta, GA 30339</t>
-  </si>
-  <si>
     <t xml:space="preserve">I believe that empowering, upward mobility and thriving in life is important. I believe my contribution will add value since I've implemented solutions based on CrowdDoing's tech stack. </t>
   </si>
   <si>
@@ -1913,9 +1748,6 @@
     <t>10am - 5pm or after 8pm PST</t>
   </si>
   <si>
-    <t>Sacramento, CA</t>
-  </si>
-  <si>
     <t>Project Manager, Strategic Partner, Product Manager</t>
   </si>
   <si>
@@ -1952,9 +1784,6 @@
     <t>Strong verbal communication skills. 33 years of front line financial advisory and investment management role. Weakness is cross cultural sensitivity - I mostly operate within the relatively wealthy progressive white cultural set.</t>
   </si>
   <si>
-    <t>505 N 4th St Ste 202</t>
-  </si>
-  <si>
     <t>Project Manager, Facilitation with local stakeholders and Networking capacity</t>
   </si>
   <si>
@@ -1979,9 +1808,6 @@
     <t>M,T,W,Th 4pm PT</t>
   </si>
   <si>
-    <t>Sanjay.Rajan@maanuka.com</t>
-  </si>
-  <si>
     <t>others, Facilitation &amp; Integrated Bottomline approach</t>
   </si>
   <si>
@@ -2003,9 +1829,6 @@
     <t>4/2 10am to 4pm; 4/3 11 am to 4pm; 4/6 11 am to 2 pm; 4/7 10 am to 4 pm</t>
   </si>
   <si>
-    <t>1100 Hartford Turnpike, Unit#685, Vernon, CT</t>
-  </si>
-  <si>
     <t>Project Manager, Python Developer, Data Scientist</t>
   </si>
   <si>
@@ -2033,9 +1856,6 @@
     <t>Data analytic, financial knowledge</t>
   </si>
   <si>
-    <t>5035 S EAST END AVE, Chicago, IL</t>
-  </si>
-  <si>
     <t>Python Developer, Financial Analyst, Data Scientist</t>
   </si>
   <si>
@@ -2067,9 +1887,6 @@
   </si>
   <si>
     <t>I would appreciate participating in a strategy toward the creation of a sustainable and effective work environment in whichever way you may find fitting.</t>
-  </si>
-  <si>
-    <t>Stora Pölsans Väg 8</t>
   </si>
   <si>
     <t>User Experience Designer</t>
@@ -2105,9 +1922,6 @@
   </si>
   <si>
     <t>Management and organization skills, emotional intelligence skills</t>
-  </si>
-  <si>
-    <t>13031 scofield farms dr</t>
   </si>
   <si>
     <t>Project Manager, Marketing, Social Media Manager, product, any internship positions where I can contribute</t>
@@ -2128,9 +1942,6 @@
     <t>I would be available after 10:00 am everyday in the next 2 weeks.</t>
   </si>
   <si>
-    <t>444 Washington Blvd, Apt 1516, Jersey City, NJ 07310</t>
-  </si>
-  <si>
     <t xml:space="preserve">I am a Senior Health student at the University of Houston who is interested in a health related Internship position. I want to gain experience and share my passion for helping others and for doing research. I want to be able to educate other on the importance of disease prevention and promotion. </t>
   </si>
   <si>
@@ -2166,9 +1977,6 @@
     <t>A few of my strengths are that I am organized, I have that 'Do it yourself' attitude, I seek to create a logical and consistent environment, I like to evaluate team progress, share risks and responsibilities and analyze obstacles to determine the best approach to overcome them. With these set of skills I will be able to work both as part of a team and individually as well. I would consider myself the leader in a group .</t>
   </si>
   <si>
-    <t>The Woodlands, TX</t>
-  </si>
-  <si>
     <t>Project Manager, Data Scientist</t>
   </si>
   <si>
@@ -2193,9 +2001,6 @@
     <t>Mon-Fri 9am-5pm</t>
   </si>
   <si>
-    <t>4535 12th Ave NE</t>
-  </si>
-  <si>
     <t>Project Manager, Web Developer, Python Developer, Android Developer, Social Media Manager, Data Scientist, Wordpress Developer</t>
   </si>
   <si>
@@ -2224,9 +2029,6 @@
   </si>
   <si>
     <t xml:space="preserve">Professionaly, I am willing to capapcity build my colleagues on data science, search enginee optimization, or marketing analytics. </t>
-  </si>
-  <si>
-    <t>5560 Pershing Ave</t>
   </si>
   <si>
     <t xml:space="preserve">Crowddoing seems to be a platform to learn and grow. I have been self learning financial markets since a year now - I try to observe the market reactions to the changes across the globe.
@@ -2264,9 +2066,6 @@
     <t>Public Relations and Intra-Day trading</t>
   </si>
   <si>
-    <t>VPO = 12Z, Bypass</t>
-  </si>
-  <si>
     <t>Marketing, Social Media Manager</t>
   </si>
   <si>
@@ -2295,9 +2094,6 @@
   </si>
   <si>
     <t>Any day between 8am to 6pm.</t>
-  </si>
-  <si>
-    <t>Spring, TX 77388</t>
   </si>
   <si>
     <t>Project Manager, Supply Chain Management / Logistics</t>
@@ -2340,9 +2136,6 @@
     <t xml:space="preserve">I would like to learn more about working culture in U.S. </t>
   </si>
   <si>
-    <t>600 PARK VIEW DR, APT 207 ,SANTA CLARA , CALIFORNIA-95054</t>
-  </si>
-  <si>
     <t>Financial Analyst, Operations Analyst , Accountant</t>
   </si>
   <si>
@@ -2369,9 +2162,6 @@
     <t>Every day from 10AM-3PM PST</t>
   </si>
   <si>
-    <t>Apt 1, 7 Pratt St</t>
-  </si>
-  <si>
     <t>I am an environmental engineer and I would like to help with my knowledge and also practice my English skills.</t>
   </si>
   <si>
@@ -2406,9 +2196,6 @@
     <t>my firts language is spanish, I can help my colleagues with that</t>
   </si>
   <si>
-    <t>9022 LAWNCLIFF LN</t>
-  </si>
-  <si>
     <t>Being in technology, I love the mission of CrowdDoing, which uses the latest technology to match volunteers skills to those in need in local and remote areas. Would love to learn more about this project.</t>
   </si>
   <si>
@@ -2430,9 +2217,6 @@
     <t>10 am to 1 pm 04/13 - 04/17</t>
   </si>
   <si>
-    <t>15 Nightingale Dr, Shrewsbury MA 01545</t>
-  </si>
-  <si>
     <t>Web Developer, Python Developer, others, Wordpress Developer, AWS</t>
   </si>
   <si>
@@ -2466,9 +2250,6 @@
     <t>Utilization of technology, blockchain and cryptocurrency knowledge and skills.  Legal and analytical thinking as well as practical legal and compliance knowledge.</t>
   </si>
   <si>
-    <t>2216 Coral Street</t>
-  </si>
-  <si>
     <t>Financial Analyst, others, Legal/Compliance/Risk Management/Privacy Risk Management</t>
   </si>
   <si>
@@ -2493,9 +2274,6 @@
     <t>4/17-  1PM-5PM,  4/20 1PM-5PM, 4/21 1PM-5PM, 4/22 1PM-5PM, 4/23 1PM-5PM</t>
   </si>
   <si>
-    <t>1152 W 37th St</t>
-  </si>
-  <si>
     <t>Financial Analyst, Accountant/ Bookkeeper/Tax preparer</t>
   </si>
   <si>
@@ -2515,9 +2293,6 @@
   </si>
   <si>
     <t>April 20, 21, 23, 24 from 2pm to 5pm</t>
-  </si>
-  <si>
-    <t>1228 Cobb DR SE, 1B Grand Rapids MI 49508</t>
   </si>
   <si>
     <t>Python Developer, Android Developer</t>
@@ -2544,9 +2319,6 @@
 Tuesday,April 23 : 10-11AM PST</t>
   </si>
   <si>
-    <t>201 W California Ave</t>
-  </si>
-  <si>
     <t>Python Developer, Marketing, Financial Analyst, Data Scientist</t>
   </si>
   <si>
@@ -2580,9 +2352,6 @@
     <t>I'd be willing to help colleagues in any way I can</t>
   </si>
   <si>
-    <t>Columbus, OH 43221</t>
-  </si>
-  <si>
     <t xml:space="preserve">I want to apply my technical skills to help other people. </t>
   </si>
   <si>
@@ -2607,9 +2376,6 @@
     <t>Organization and cooperation</t>
   </si>
   <si>
-    <t>3732 Main Poplar Drive</t>
-  </si>
-  <si>
     <t>I wish to help and contribute in open source in my free time.</t>
   </si>
   <si>
@@ -2637,9 +2403,6 @@
     <t>Help in every area possible and fun activities to keep the team together</t>
   </si>
   <si>
-    <t>bangalore, india</t>
-  </si>
-  <si>
     <t>Believe in the cause and develop skill set</t>
   </si>
   <si>
@@ -2664,9 +2427,6 @@
     <t>4/23 - 4pm; 4/24 - 4pm; 4/28 - 4pm; 4/29 - 5pm</t>
   </si>
   <si>
-    <t>Arlington,VA</t>
-  </si>
-  <si>
     <t>Data Scientist, Business Analyst</t>
   </si>
   <si>
@@ -2695,9 +2455,6 @@
   </si>
   <si>
     <t>I can help them develop in any technical skill I possess, like programming or statistics. In my previous job I tutored analysts and end users in the use of technology, so I think I would love to keep doing that.</t>
-  </si>
-  <si>
-    <t>1100 Ave at Port Imperial</t>
   </si>
   <si>
     <t>Python Developer, Data Scientist, Business Analyst</t>
@@ -2719,9 +2476,6 @@
     <t>Everyday 8am-6pm</t>
   </si>
   <si>
-    <t>1100 Liberty Ave, Pittsburgh</t>
-  </si>
-  <si>
     <t>Marketing, Social Media Manager, Data Scientist</t>
   </si>
   <si>
@@ -2753,9 +2507,6 @@
   </si>
   <si>
     <t xml:space="preserve">Appreciate others, be positive, Listen to them actively </t>
-  </si>
-  <si>
-    <t>2101  Teal Trace road</t>
   </si>
   <si>
     <t>Python Developer, Wordpress Developer</t>
@@ -2800,9 +2551,6 @@
 Helping others</t>
   </si>
   <si>
-    <t>101 Eastmoor, Apt 218, Daly City, 94015, CA</t>
-  </si>
-  <si>
     <t>This is a difficult time for everyone. And I want to contribute and also get involved in some real projects to get self improved.</t>
   </si>
   <si>
@@ -2824,9 +2572,6 @@
     <t xml:space="preserve"> I am available at any time (except May 4th) and prefer to have the interview as soon as possible. And right now I am in New Jersey. There is a 3 hour time difference between PST and ET. Please select the date and time that is more convenient for you.</t>
   </si>
   <si>
-    <t>235 grand st, 2204 apt</t>
-  </si>
-  <si>
     <t>Marketing, Financial Analyst, Data Scientist</t>
   </si>
   <si>
@@ -2863,9 +2608,6 @@
     <t>emotionally support others so they can function optimally</t>
   </si>
   <si>
-    <t>15 Maple Ave Oceanport, NJ 07757</t>
-  </si>
-  <si>
     <t>I believe that right now the world faces critical issues that we cannot ignore, and those who can see them and do something should try to lend their hands to solve them. Having right now the opportunity to contribute to a good cause through online means, I consider that CrowdDoing is the appropriate place to do it. Thus, I think that my labor in this organization will not only allow me to do something to make our world a better place, but also get hands-on experience in my field while knowing that my labor is helping others.</t>
   </si>
   <si>
@@ -2896,9 +2638,6 @@
     <t>Language, doing research</t>
   </si>
   <si>
-    <t>Verona 607 Torreon Residencial, Torreon, Mexico</t>
-  </si>
-  <si>
     <t xml:space="preserve">I would like to keep my scrum master skills current during this time. I also want to donate my time towards a good cause and an exciting project. </t>
   </si>
   <si>
@@ -2924,9 +2663,6 @@
   </si>
   <si>
     <t>Communication</t>
-  </si>
-  <si>
-    <t>637 Garfield Ave</t>
   </si>
   <si>
     <t>I am interested in volunteering for CrowdDoing, to contribute my knowledge and make a better community, in addition to gaining experience with a prestigious Foundation. Likewise because CrowdDoing encourages a new participation of individuals and institutions so that everything is possible, with social innovations</t>
@@ -2961,9 +2697,6 @@
   </si>
   <si>
     <t>I want to teach what little or much I know about Law and Spanish, Contribute to a world of knowledge in different areas, especially in my area of ​​Law, for everyone!</t>
-  </si>
-  <si>
-    <t>Calle 32 N° 29-56, CC El Tesoro, local 106, casillero 10. Marinilla- Antioquia-Colombia</t>
   </si>
   <si>
     <t>Project Manager, Human Resources, others, Recreation, dynamics and teaching: good work environment!</t>
@@ -2995,9 +2728,6 @@
     <t>Data science and machine learning methodology, data analysis with python &amp; SQL</t>
   </si>
   <si>
-    <t>Toronto, Canada</t>
-  </si>
-  <si>
     <t>Research project management &amp; program management</t>
   </si>
   <si>
@@ -3019,9 +2749,6 @@
     <t>Friday 7am - 10am or 4pm - 11pm</t>
   </si>
   <si>
-    <t>1 Rue de La Liberation, Residence Expansiel Chambre 71</t>
-  </si>
-  <si>
     <t>Project Manager, Financial Analyst, Business Development &amp; Strategic Planning</t>
   </si>
   <si>
@@ -3037,9 +2764,6 @@
     <t>Everyday after 12:00 pm. I hope I can get the interview ASAP.</t>
   </si>
   <si>
-    <t>1500 Purdue Ave</t>
-  </si>
-  <si>
     <t>Financial Analyst, Data Scientist, Risk Analyst</t>
   </si>
   <si>
@@ -3073,9 +2797,6 @@
     <t>I think that keeping a positive and encouraging outlook is important to develop positive and beneficial connections. It helps promote and build a motivating atmosphere to work in and promotes for growth and success in others.</t>
   </si>
   <si>
-    <t>1047 13th st, #1</t>
-  </si>
-  <si>
     <t>To become better developer and improve current skill set</t>
   </si>
   <si>
@@ -3104,9 +2825,6 @@
   </si>
   <si>
     <t>automation</t>
-  </si>
-  <si>
-    <t>Miyapur, Hyderabad</t>
   </si>
   <si>
     <t>I'd love to share my knowledge and help others</t>
@@ -3162,9 +2880,6 @@
   <si>
     <t xml:space="preserve">The ability to think critically
 </t>
-  </si>
-  <si>
-    <t>6006 ormond ct</t>
   </si>
   <si>
     <t>Financial Analyst, Accounting/Bookkepper</t>
@@ -3208,9 +2923,6 @@
     <t>research, data entry, organizational messaging and structuring in an administrative way, serving as a community advocate, direct community engagement</t>
   </si>
   <si>
-    <t>837 East 3rd Street, 2 (will be relocating to CA after COVID)</t>
-  </si>
-  <si>
     <t>Human Resources, others, administrative type work, strategy, project management</t>
   </si>
   <si>
@@ -3242,9 +2954,6 @@
 5/8: 3:30 pm PST</t>
   </si>
   <si>
-    <t>25 White Terrace</t>
-  </si>
-  <si>
     <t>Financial Analyst</t>
   </si>
   <si>
@@ -3272,9 +2981,6 @@
     <t>May 11- 15, 8am-6pm</t>
   </si>
   <si>
-    <t>30 Lantern Lane</t>
-  </si>
-  <si>
     <t>Human Resources, Data Scientist, others</t>
   </si>
   <si>
@@ -3294,9 +3000,6 @@
   </si>
   <si>
     <t>1pm - 3pm (PST) on May 6, May 7, May 8, May 12, May 13.</t>
-  </si>
-  <si>
-    <t>28182 Universal Dr, Warren, MI</t>
   </si>
   <si>
     <t xml:space="preserve">Over the years I have acquired relevant experience that I will be able to put to good use at your organization. At UC Berkeley, I worked as a staff writer for a biological startup magazine, which meant translating complex medical jargon into comprehensible language and to spreading health literacy at a national level. Later, my academic career prepared me with superb presentation, public speaking, research, problem solving, and critical thinking skills, allowing me to absorb information effectively and efficiently under tight deadlines. I also become proficient at conducting statistical analysis and evaluating the efficacy of statistical procedures. This background allows me to communicate fluently and effectively with patients, clinicians, and business partners. In my past internship, I have learned web design and marketing skills while reviewing and research immigration policies and their impact. In my current role as a social media manager, my team provides mission-driven organizations by providing them with the most advanced data-optimization tools. I love working with an organization that can help mission-driven organizations and being able to say that I helped scale it up through various digital channels in one year. </t>
@@ -3327,9 +3030,6 @@
     <t xml:space="preserve">Strengths: I am definitely a team player. Weakness: I would like to be comfortable within an uncomfortable setting. I hope to be confident enough to share my thoughts with everyone, even when there are teammates/team leaders who have more years of experience under their belts. </t>
   </si>
   <si>
-    <t>1554 27th Avenue San Francisco CA 94122</t>
-  </si>
-  <si>
     <t>Project Manager, Marketing, Social Media Manager, Financial Analyst</t>
   </si>
   <si>
@@ -3402,9 +3102,6 @@
     <t>Mobile typing speed</t>
   </si>
   <si>
-    <t>Dwaraka Nivas,mangad theru, kalliasseri p.o.</t>
-  </si>
-  <si>
     <t>Social Media Manager</t>
   </si>
   <si>
@@ -3433,9 +3130,6 @@
   </si>
   <si>
     <t>Dehradun area</t>
-  </si>
-  <si>
-    <t>tulas institute dhulkot dehradun</t>
   </si>
   <si>
     <t>Why</t>
@@ -3737,41 +3431,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE8C8DB-6A14-4EDF-B192-748D49EC87AB}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="J58" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="21.5546875" customWidth="1"/>
+    <col min="1" max="23" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1094</v>
+        <v>992</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1095</v>
+        <v>993</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1096</v>
+        <v>994</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1097</v>
+        <v>995</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1098</v>
+        <v>996</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1099</v>
+        <v>997</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1100</v>
+        <v>998</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1101</v>
+        <v>999</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -3786,4987 +3480,4668 @@
         <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>1102</v>
+        <v>1000</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1105</v>
+        <v>1003</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>1103</v>
+        <v>1001</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="R1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" s="3">
         <v>32</v>
       </c>
       <c r="N13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="P17" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="3" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="N19" s="3" t="s">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="3" t="s">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="3" t="s">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" s="3">
         <v>20</v>
       </c>
       <c r="N27" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="Q27" s="3" t="s">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="P28" s="3" t="s">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="3" t="s">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="H32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="P32" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="P33" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="H34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="P34" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N31" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="I35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F32" s="3" t="s">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="3" t="s">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="3" t="s">
+      <c r="H37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M35" s="3" t="s">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="3" t="s">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="P40" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M37" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="O41" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="N38" s="3" t="s">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="P42" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="H43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M43" s="3">
         <v>10</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M46" s="3">
         <v>15</v>
       </c>
       <c r="N46" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="O51" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="P51" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M47" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D48" s="3" t="s">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M48" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="O53" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C49" s="3" t="s">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="O54" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M50" s="3" t="s">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="H55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M51" s="3" t="s">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q51" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D52" s="3" t="s">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M52" s="3" t="s">
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P57" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="K58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M58" s="3">
         <v>24</v>
       </c>
       <c r="N58" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P64" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="Q58" s="3" t="s">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D65" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N65" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="O65" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M59" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="N59" s="3" t="s">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M66" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="O66" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="P66" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M61" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="H67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="P67" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C62" s="3" t="s">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="H68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="N68" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="P68" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M62" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="F69" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="H69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="N69" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="O69" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="P69" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="G63" s="3" t="s">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M63" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="F70" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="H70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="N70" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="P70" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="G64" s="3" t="s">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M64" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M71" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="N71" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="O71" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="P71" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N65" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M72" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="O72" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="P72" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F66" s="3" t="s">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M66" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="N73" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="P73" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D67" s="3" t="s">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M67" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="O74" s="3" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="P74" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B68" s="3" t="s">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="N68" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="Q68" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="H75" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="N75" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="P75" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M69" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="H76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="P69" s="3" t="s">
+      <c r="N76" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="Q69" s="3" t="s">
+      <c r="O76" s="3" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="P76" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" s="3" t="s">
+      <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="P70" s="3" t="s">
+      <c r="P77" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="Q70" s="3" t="s">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M71" s="3" t="s">
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="N78" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="O78" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="P71" s="3" t="s">
+      <c r="P78" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="Q71" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="N79" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M72" s="3" t="s">
+      <c r="P79" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="N72" s="3" t="s">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="D80" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="H80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="N80" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="P80" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D73" s="3" t="s">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="3" t="s">
+      <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N81" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="P73" s="3" t="s">
+      <c r="P81" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="Q73" s="3" t="s">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M74" s="3" t="s">
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M82" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N82" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O82" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="P74" s="3" t="s">
+      <c r="P82" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="Q74" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M83" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M75" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="P75" s="3" t="s">
+      <c r="P83" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="Q75" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="I84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="N84" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="3" t="s">
+      <c r="O84" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="P84" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="O76" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="N85" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M77" s="3" t="s">
+      <c r="P85" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="N77" s="3" t="s">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="F86" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="H86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="N86" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="O86" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="P86" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M78" s="3" t="s">
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="N78" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="O78" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="H87" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M87" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="N87" s="3" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="P87" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="B79" s="3" t="s">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M79" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="P79" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="Q79" s="3" t="s">
+      <c r="H88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M88" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="N88" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="O88" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="P88" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G80" s="3" t="s">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M80" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="N80" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="Q80" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="H89" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="K89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M81" s="3" t="s">
+      <c r="N89" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="O89" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P89" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="Q81" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="H90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N90" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="P90" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="G82" s="3" t="s">
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M82" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="N82" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="O82" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="P82" s="3" t="s">
+      <c r="E91" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="Q82" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="I91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="P91" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="E92" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="H92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M92" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="N92" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="O92" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="N84" s="3" t="s">
+      <c r="P92" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="Q84" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="F93" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="P85" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="Q85" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="P86" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>894</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="P90" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="Q90" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>913</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="P92" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="Q92" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>925</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>928</v>
-      </c>
       <c r="H93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M93" s="3">
         <v>20</v>
       </c>
       <c r="N93" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="P93" s="3" t="s">
+      <c r="H103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M103" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="Q93" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="N103" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="P103" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="E104" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="F104" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M94" s="3" t="s">
+      <c r="H104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M104" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="N104" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="P104" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="P94" s="3" t="s">
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="H105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M105" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="N105" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="P105" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="N95" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>952</v>
       </c>
-      <c r="P95" s="3" t="s">
+      <c r="F106" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="Q95" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>954</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="H106" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M106" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="N106" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="O106" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="P106" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M96" s="3" t="s">
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="N96" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="P96" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="Q96" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>963</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="N107" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N97" s="3" t="s">
+      <c r="P107" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="P97" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="Q97" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="H108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M108" s="3" t="s">
         <v>970</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="N108" s="3" t="s">
         <v>971</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="P108" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="E98" s="3" t="s">
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>974</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M98" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="N98" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="O98" s="3" t="s">
+      <c r="F109" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="P98" s="3" t="s">
+      <c r="H109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M109" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="Q98" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="N109" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="O109" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="P109" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="D99" s="3" t="s">
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M99" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="N99" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="O99" s="3" t="s">
+      <c r="H110" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M110" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="P99" s="3" t="s">
+      <c r="N110" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="Q99" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="O110" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="P100" s="3">
-        <v>5429</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="P103" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P104" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Q104" s="3" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="P105" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="Q105" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="O106" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="P106" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="Q106" s="3" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="P107" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="Q107" s="3" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="P108" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="Q108" s="3" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="O109" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="O110" s="3" t="s">
-        <v>1092</v>
-      </c>
       <c r="P110" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="Q110" s="3" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>